--- a/input/raw_data/full_text_screen/full_text_screen_end_ms.xlsx
+++ b/input/raw_data/full_text_screen/full_text_screen_end_ms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/full_text_screen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA2BE3-7B25-C245-A5F5-D3586AEA4C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC69551-F07D-604A-8460-9C5B5D7D80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="13060" windowWidth="20580" windowHeight="12240" xr2:uid="{077AE97E-8418-4769-81AE-8A3938F04241}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>Publication Year</t>
   </si>
@@ -305,15 +305,6 @@
   </si>
   <si>
     <t>Intentional Ingestion Of Foreign Bodies: A Physician'S Agony</t>
-  </si>
-  <si>
-    <t>Huang, James Guoxian; Tanpowpong, Pornthep</t>
-  </si>
-  <si>
-    <t>Paediatric Gastrointestinal Endoscopy In The Asian-Pacific Region: Recent Advances In Diagnostic And Therapeutic Techniques</t>
-  </si>
-  <si>
-    <t>World Journal Of Gastroenterology</t>
   </si>
   <si>
     <t>Sultan, Noran; Attar, Hanin; Sembawa, Hatem; Alharthi, Hind</t>
@@ -1191,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26470A0-A3C1-47C2-90CB-E198FCDFBF87}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1201,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1316,7 +1307,7 @@
         <v>45727</v>
       </c>
       <c r="N3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1702,7 +1693,7 @@
         <v>45727</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2274,10 +2265,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B29">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C29" t="s">
         <v>95</v>
@@ -2298,24 +2289,24 @@
         <v>2</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>45727</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B30">
         <v>2024</v>
@@ -2335,28 +2326,19 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
       <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>45726</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B31">
         <v>2024</v>
@@ -2376,54 +2358,22 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>45727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>487</v>
-      </c>
-      <c r="B32">
-        <v>2024</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
         <v>45727</v>
       </c>
     </row>
